--- a/app/server/static/templates/reports/Licence_Comments_Template.xlsx
+++ b/app/server/static/templates/reports/Licence_Comments_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D55FE-767F-435E-BEE8-9D343CF6CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E53AC8-D84F-49B6-996B-FAE5FEA9454E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E595DB21-1109-454B-9DC1-BC15D5C6BC2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date &amp; Time Report Created (UTC) {d.DateTime}</t>
   </si>
@@ -68,58 +68,52 @@
     <t>Date Comment Created</t>
   </si>
   <si>
-    <t>{d.Comments[i].InspectionComments}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].InspectionComments}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].LicenceNumber}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].LicenceNumber}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].Company}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].Company}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].EmailAddress}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].EmailAddress}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].LicenceType}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].LicenceType}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].DateCreated}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].DateCreated}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].Comment}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].Comment}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].LastName}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].LastName}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i].FirstName}</t>
-  </si>
-  <si>
-    <t>{d.Comments[i+1].FirstName}</t>
+    <t>{d.Licence[i].LicenceNumber}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].Company}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].LicenceType}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].Comment}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].LicenceNumber}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].Company}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].LicenceType}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].Comment}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].Lastname}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].Lastname}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].Firstname}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].Firstname}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].Email}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].Email}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i].CommentDate}</t>
+  </si>
+  <si>
+    <t>{d.Licence[i+1].CommentDate}</t>
   </si>
 </sst>
 </file>
@@ -552,7 +546,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,67 +620,59 @@
         <v>1</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
